--- a/New folder/personality_analysis/final_final_allsubj_personality_coded.xlsx
+++ b/New folder/personality_analysis/final_final_allsubj_personality_coded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27KarlC\Downloads\NeuroIntern\New folder\personality_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2BF440-2A0F-4E15-B8AF-6F69BC77B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AC0C3-8BFD-4FD7-A6DA-3BF876F60D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,13 +723,13 @@
     <t>SVS_Conservation</t>
   </si>
   <si>
-    <t>Belief_change</t>
-  </si>
-  <si>
     <t>Belief_Pre</t>
   </si>
   <si>
-    <t>elief_Post</t>
+    <t>Belief_Post</t>
+  </si>
+  <si>
+    <t>Belief_Change</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -38221,8 +38221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38268,13 +38268,13 @@
         <v>231</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -38317,6 +38317,15 @@
       <c r="M2">
         <v>2.666666666666667</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -38358,6 +38367,15 @@
       <c r="M3">
         <v>7</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -38399,6 +38417,15 @@
       <c r="M4">
         <v>4.666666666666667</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -38440,6 +38467,15 @@
       <c r="M5">
         <v>4.333333333333333</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -38481,6 +38517,15 @@
       <c r="M6">
         <v>5.666666666666667</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -38522,6 +38567,15 @@
       <c r="M7">
         <v>5.333333333333333</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -38563,6 +38617,15 @@
       <c r="M8">
         <v>4.333333333333333</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -38604,6 +38667,15 @@
       <c r="M9">
         <v>5</v>
       </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -38645,6 +38717,15 @@
       <c r="M10">
         <v>4</v>
       </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -38686,6 +38767,15 @@
       <c r="M11">
         <v>7.666666666666667</v>
       </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -38727,6 +38817,15 @@
       <c r="M12">
         <v>5</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -38768,6 +38867,15 @@
       <c r="M13">
         <v>4.333333333333333</v>
       </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -38809,6 +38917,15 @@
       <c r="M14">
         <v>4</v>
       </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -38850,6 +38967,15 @@
       <c r="M15">
         <v>6.333333333333333</v>
       </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -38891,8 +39017,17 @@
       <c r="M16">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -38932,8 +39067,17 @@
       <c r="M17">
         <v>6.333333333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -38973,8 +39117,17 @@
       <c r="M18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -39014,8 +39167,17 @@
       <c r="M19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -39055,8 +39217,17 @@
       <c r="M20">
         <v>3.333333333333333</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -39096,8 +39267,17 @@
       <c r="M21">
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -39137,8 +39317,17 @@
       <c r="M22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -39178,8 +39367,17 @@
       <c r="M23">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -39219,8 +39417,17 @@
       <c r="M24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -39260,8 +39467,17 @@
       <c r="M25">
         <v>7.666666666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -39301,8 +39517,17 @@
       <c r="M26">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -39342,8 +39567,17 @@
       <c r="M27">
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -39383,8 +39617,17 @@
       <c r="M28">
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -39424,8 +39667,17 @@
       <c r="M29">
         <v>3.333333333333333</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -39465,8 +39717,17 @@
       <c r="M30">
         <v>5.666666666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -39506,8 +39767,17 @@
       <c r="M31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -39547,8 +39817,17 @@
       <c r="M32">
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -39588,8 +39867,17 @@
       <c r="M33">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -39629,8 +39917,17 @@
       <c r="M34">
         <v>5.666666666666667</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -39670,8 +39967,17 @@
       <c r="M35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -39711,8 +40017,17 @@
       <c r="M36">
         <v>6.333333333333333</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -39752,8 +40067,17 @@
       <c r="M37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -39793,8 +40117,17 @@
       <c r="M38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -39834,8 +40167,17 @@
       <c r="M39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -39875,8 +40217,17 @@
       <c r="M40">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -39916,8 +40267,17 @@
       <c r="M41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -39957,8 +40317,17 @@
       <c r="M42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -39998,8 +40367,17 @@
       <c r="M43">
         <v>5.666666666666667</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -40039,8 +40417,17 @@
       <c r="M44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -40080,8 +40467,17 @@
       <c r="M45">
         <v>6.333333333333333</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -40121,8 +40517,17 @@
       <c r="M46">
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -40162,8 +40567,17 @@
       <c r="M47">
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -40203,8 +40617,17 @@
       <c r="M48">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -40244,8 +40667,17 @@
       <c r="M49">
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -40285,8 +40717,17 @@
       <c r="M50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -40326,8 +40767,17 @@
       <c r="M51">
         <v>2.333333333333333</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -40367,8 +40817,17 @@
       <c r="M52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -40408,8 +40867,17 @@
       <c r="M53">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -40449,8 +40917,17 @@
       <c r="M54">
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -40490,8 +40967,17 @@
       <c r="M55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -40531,8 +41017,17 @@
       <c r="M56">
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -40572,8 +41067,17 @@
       <c r="M57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -40613,8 +41117,17 @@
       <c r="M58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -40654,8 +41167,17 @@
       <c r="M59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -40695,8 +41217,17 @@
       <c r="M60">
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -40736,8 +41267,17 @@
       <c r="M61">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -40777,8 +41317,17 @@
       <c r="M62">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -40818,8 +41367,17 @@
       <c r="M63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -40859,8 +41417,17 @@
       <c r="M64">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -40900,8 +41467,17 @@
       <c r="M65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -40941,8 +41517,17 @@
       <c r="M66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -40982,8 +41567,17 @@
       <c r="M67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -41023,8 +41617,17 @@
       <c r="M68">
         <v>1.666666666666667</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -41064,8 +41667,17 @@
       <c r="M69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -41105,8 +41717,17 @@
       <c r="M70">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -41146,8 +41767,17 @@
       <c r="M71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -41187,8 +41817,17 @@
       <c r="M72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -41228,8 +41867,17 @@
       <c r="M73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -41269,8 +41917,17 @@
       <c r="M74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -41310,8 +41967,17 @@
       <c r="M75">
         <v>1.333333333333333</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -41351,8 +42017,17 @@
       <c r="M76">
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -41392,8 +42067,17 @@
       <c r="M77">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -41433,8 +42117,17 @@
       <c r="M78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -41474,8 +42167,17 @@
       <c r="M79">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -41515,8 +42217,17 @@
       <c r="M80">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -41556,8 +42267,17 @@
       <c r="M81">
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -41597,8 +42317,17 @@
       <c r="M82">
         <v>2.666666666666667</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -41638,8 +42367,17 @@
       <c r="M83">
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -41679,8 +42417,17 @@
       <c r="M84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -41720,8 +42467,17 @@
       <c r="M85">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -41761,8 +42517,17 @@
       <c r="M86">
         <v>6.333333333333333</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -41802,8 +42567,17 @@
       <c r="M87">
         <v>2.666666666666667</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -41842,6 +42616,15 @@
       </c>
       <c r="M88">
         <v>5.666666666666667</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/New folder/personality_analysis/final_final_allsubj_personality_coded.xlsx
+++ b/New folder/personality_analysis/final_final_allsubj_personality_coded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27KarlC\Downloads\NeuroIntern\New folder\personality_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AC0C3-8BFD-4FD7-A6DA-3BF876F60D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFAF54-F24B-49F6-A113-9093E3836391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2870" yWindow="2430" windowWidth="14400" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Big Five" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX88"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AX17" sqref="AX17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -31960,7 +31962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -38221,8 +38225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
